--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F7-F3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.859924666666667</v>
+        <v>3.012198</v>
       </c>
       <c r="H2">
-        <v>8.579774</v>
+        <v>9.036594000000001</v>
       </c>
       <c r="I2">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="J2">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N2">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O2">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P2">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q2">
-        <v>32.28024331212644</v>
+        <v>0.61895146537</v>
       </c>
       <c r="R2">
-        <v>290.5221898091381</v>
+        <v>5.57056318833</v>
       </c>
       <c r="S2">
-        <v>0.09699915503170892</v>
+        <v>0.00395894205170009</v>
       </c>
       <c r="T2">
-        <v>0.09699915503170892</v>
+        <v>0.00395894205170009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.859924666666667</v>
+        <v>3.012198</v>
       </c>
       <c r="H3">
-        <v>8.579774</v>
+        <v>9.036594000000001</v>
       </c>
       <c r="I3">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="J3">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.338787</v>
       </c>
       <c r="O3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P3">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q3">
-        <v>112.8133386549042</v>
+        <v>118.819952507942</v>
       </c>
       <c r="R3">
-        <v>1015.320047894138</v>
+        <v>1069.379572571478</v>
       </c>
       <c r="S3">
-        <v>0.3389936816777631</v>
+        <v>0.7599970803583125</v>
       </c>
       <c r="T3">
-        <v>0.3389936816777631</v>
+        <v>0.7599970803583124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.859924666666667</v>
+        <v>3.012198</v>
       </c>
       <c r="H4">
-        <v>8.579774</v>
+        <v>9.036594000000001</v>
       </c>
       <c r="I4">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="J4">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N4">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P4">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q4">
-        <v>4.098744888211555</v>
+        <v>5.159343941766</v>
       </c>
       <c r="R4">
-        <v>36.888703993904</v>
+        <v>46.434095475894</v>
       </c>
       <c r="S4">
-        <v>0.01231635049967865</v>
+        <v>0.03300023480521438</v>
       </c>
       <c r="T4">
-        <v>0.01231635049967865</v>
+        <v>0.03300023480521438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.859924666666667</v>
+        <v>3.012198</v>
       </c>
       <c r="H5">
-        <v>8.579774</v>
+        <v>9.036594000000001</v>
       </c>
       <c r="I5">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="J5">
-        <v>0.4493933135217944</v>
+        <v>0.7974910863989846</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N5">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O5">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P5">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q5">
-        <v>0.3607852165493334</v>
+        <v>0.083616608348</v>
       </c>
       <c r="R5">
-        <v>3.247066948944</v>
+        <v>0.7525494751320001</v>
       </c>
       <c r="S5">
-        <v>0.001084126312643711</v>
+        <v>0.0005348291837576428</v>
       </c>
       <c r="T5">
-        <v>0.001084126312643711</v>
+        <v>0.0005348291837576428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.504043333333334</v>
+        <v>0.7648950000000001</v>
       </c>
       <c r="H6">
-        <v>10.51213</v>
+        <v>2.294685</v>
       </c>
       <c r="I6">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="J6">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>11.28709566666667</v>
+        <v>0.2054816666666667</v>
       </c>
       <c r="N6">
-        <v>33.861287</v>
+        <v>0.616445</v>
       </c>
       <c r="O6">
-        <v>0.2158446779538137</v>
+        <v>0.00496424614546655</v>
       </c>
       <c r="P6">
-        <v>0.2158446779538137</v>
+        <v>0.004964246145466549</v>
       </c>
       <c r="Q6">
-        <v>39.55047232347889</v>
+        <v>0.157171899425</v>
       </c>
       <c r="R6">
-        <v>355.9542509113101</v>
+        <v>1.414547094825</v>
       </c>
       <c r="S6">
-        <v>0.1188455229221047</v>
+        <v>0.001005304093766459</v>
       </c>
       <c r="T6">
-        <v>0.1188455229221047</v>
+        <v>0.001005304093766459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.504043333333334</v>
+        <v>0.7648950000000001</v>
       </c>
       <c r="H7">
-        <v>10.51213</v>
+        <v>2.294685</v>
       </c>
       <c r="I7">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="J7">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>118.338787</v>
       </c>
       <c r="O7">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799925</v>
       </c>
       <c r="P7">
-        <v>0.75433628289025</v>
+        <v>0.9529850468799924</v>
       </c>
       <c r="Q7">
-        <v>138.2214125540344</v>
+        <v>30.172248827455</v>
       </c>
       <c r="R7">
-        <v>1243.99271298631</v>
+        <v>271.550239447095</v>
       </c>
       <c r="S7">
-        <v>0.415342601212487</v>
+        <v>0.19298796652168</v>
       </c>
       <c r="T7">
-        <v>0.415342601212487</v>
+        <v>0.19298796652168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.504043333333334</v>
+        <v>0.7648950000000001</v>
       </c>
       <c r="H8">
-        <v>10.51213</v>
+        <v>2.294685</v>
       </c>
       <c r="I8">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="J8">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.433165333333333</v>
+        <v>1.712817</v>
       </c>
       <c r="N8">
-        <v>4.299496</v>
+        <v>5.138451</v>
       </c>
       <c r="O8">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="P8">
-        <v>0.02740661716383402</v>
+        <v>0.04138006727350978</v>
       </c>
       <c r="Q8">
-        <v>5.021873431831111</v>
+        <v>1.310125159215</v>
       </c>
       <c r="R8">
-        <v>45.19686088648</v>
+        <v>11.791126432935</v>
       </c>
       <c r="S8">
-        <v>0.01509026666415537</v>
+        <v>0.008379832468295398</v>
       </c>
       <c r="T8">
-        <v>0.01509026666415537</v>
+        <v>0.008379832468295394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.504043333333334</v>
+        <v>0.7648950000000001</v>
       </c>
       <c r="H9">
-        <v>10.51213</v>
+        <v>2.294685</v>
       </c>
       <c r="I9">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="J9">
-        <v>0.5506066864782057</v>
+        <v>0.2025089136010154</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.126152</v>
+        <v>0.02775933333333333</v>
       </c>
       <c r="N9">
-        <v>0.378456</v>
+        <v>0.083278</v>
       </c>
       <c r="O9">
-        <v>0.002412421992102324</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="P9">
-        <v>0.002412421992102323</v>
+        <v>0.000670639701031176</v>
       </c>
       <c r="Q9">
-        <v>0.4420420745866668</v>
+        <v>0.02123297527</v>
       </c>
       <c r="R9">
-        <v>3.978378671280001</v>
+        <v>0.19109677743</v>
       </c>
       <c r="S9">
-        <v>0.001328295679458612</v>
+        <v>0.0001358105172735332</v>
       </c>
       <c r="T9">
-        <v>0.001328295679458612</v>
+        <v>0.0001358105172735332</v>
       </c>
     </row>
   </sheetData>
